--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28602"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{FA9D5AEE-B909-4659-82F4-82E33C291B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC1C660-2FFE-4B72-AA77-585AC68E65C7}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Nullcon Dataset" sheetId="2" r:id="rId1"/>
     <sheet name="Data Centre Problem" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +88,21 @@
 5. Identify spoofed images / videos</t>
   </si>
   <si>
+    <t>AI-Powered Voice Authentication: Detecting and Preventing Deepfake Audio Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prashant </t>
+  </si>
+  <si>
+    <t>Dataset with real voice and AI generated voice</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/birdy654/deep-voice-deepfake-voice-recognition/data</t>
+  </si>
+  <si>
+    <t>1. Accurately identify real and AI generated audio</t>
+  </si>
+  <si>
     <t>AI-Powered Document Authentication: Combating Digital Forgery and Fraud</t>
   </si>
   <si>
@@ -115,6 +121,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">TRUE Dataset
@@ -131,6 +138,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -141,6 +149,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Signature_Verification_Dataset
@@ -161,9 +170,6 @@
     <t>AI-Driven Fraud Detection: Strengthening Financial Security Against Cyber Threats</t>
   </si>
   <si>
-    <t xml:space="preserve">Prashant </t>
-  </si>
-  <si>
     <t>Dataset with financial stataments to identify fraudulent transactions</t>
   </si>
   <si>
@@ -186,18 +192,6 @@
   </si>
   <si>
     <t>1. Identify malicious traffic</t>
-  </si>
-  <si>
-    <t>AI-Powered Voice Authentication: Detecting and Preventing Deepfake Audio Manipulation</t>
-  </si>
-  <si>
-    <t>Dataset with real voice and AI generated voice</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/birdy654/deep-voice-deepfake-voice-recognition/data</t>
-  </si>
-  <si>
-    <t>1. Accurately identify real and AI generated audio</t>
   </si>
   <si>
     <t>Dark Web Data – Transforming Hidden Information into Public Good</t>
@@ -224,6 +218,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Suggested Problem Statements for Students
@@ -234,6 +229,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -251,6 +247,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">OR 
@@ -261,6 +258,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -268,6 +266,24 @@
     </r>
   </si>
   <si>
+    <t>GPS Spoofing Detection</t>
+  </si>
+  <si>
+    <t>Kushagra</t>
+  </si>
+  <si>
+    <t>Dataset contains:  .bin and .md5 files</t>
+  </si>
+  <si>
+    <t>https://radionavlab.ae.utexas.edu/texbat/</t>
+  </si>
+  <si>
+    <t>1. Analyze signal patterns using statistical methods.
+2. Implement ML models to improve detection accuracy.
+3. Develop alerts for potential spoofing detection.
+4. Integrate with mobile applications for real-time monitoring.</t>
+  </si>
+  <si>
     <t>As India accelerates towards a digitally driven future, the demand for robust data infrastructure is rising exponentially. However, the current reliance on large, centralized data centers presents several critical challenges. Addressing these issues is vital for the nation’s growth, sustainability, and digital inclusivity.</t>
   </si>
   <si>
@@ -370,53 +386,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,14 +414,172 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,10 +588,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,12 +614,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -473,97 +815,382 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -850,401 +1477,425 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A291F3C-4FCB-47E3-8146-F430435A1A82}">
-  <dimension ref="B2:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.28571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.7142857142857" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" style="5" customWidth="1"/>
+    <col min="5" max="5" width="43.4285714285714" style="5" customWidth="1"/>
+    <col min="6" max="6" width="81.1428571428571" style="5" customWidth="1"/>
+    <col min="7" max="7" width="70.4285714285714" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.71428571428571" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="71.25" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="2" ht="71.25" customHeight="1" spans="2:7">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="2" customFormat="1" ht="409.6">
-      <c r="B3" s="5">
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="2:7">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" ht="336">
-      <c r="B4" s="5">
+    <row r="4" s="2" customFormat="1" ht="131.25" customHeight="1" spans="2:7">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="330" spans="2:7">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="62.25" customHeight="1" spans="2:7">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="62.25" customHeight="1">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="2:7">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="131.25" customHeight="1">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="90" customHeight="1">
-      <c r="B8" s="5">
+    <row r="8" s="2" customFormat="1" ht="90" customHeight="1" spans="2:7">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="335.25" hidden="1" customHeight="1">
-      <c r="B9" s="5">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="335.25" hidden="1" customHeight="1" spans="2:7">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="83" customHeight="1" spans="2:7">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{C26E514C-C99B-401C-8223-010B39AE19FC}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{5F572F85-85C6-4880-B754-DE44A8BFA1B1}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{462F5A91-EA3E-4B07-A651-13EF5B8B0967}"/>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.kaggle.com/datasets/birdy654/deep-voice-deepfake-voice-recognition/data"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://ieee-dataport.org/documents/ssh-telnet-logs-honeycloud"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://github.com/huyz97/darknet-dataset-2020/tree/master "/>
+    <hyperlink ref="F10" r:id="rId4" display="https://radionavlab.ae.utexas.edu/texbat/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C6F5A-AEE0-44A9-97B0-90D7C1225F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="129.142857142857" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="45.75">
-      <c r="B2" s="10" t="s">
-        <v>36</v>
+    <row r="2" ht="45" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="11"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="24" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="19.5" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="30.75" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="30.75" customHeight="1" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="11" t="s">
-        <v>43</v>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="11" t="s">
-        <v>44</v>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="30.75">
-      <c r="B14" s="10" t="s">
-        <v>46</v>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="11"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="10" t="s">
-        <v>47</v>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="11" t="s">
-        <v>48</v>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="11" t="s">
-        <v>49</v>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="30.75">
-      <c r="B20" s="10" t="s">
-        <v>51</v>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="10" t="s">
-        <v>52</v>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="11" t="s">
-        <v>53</v>
+      <c r="B23" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="11" t="s">
-        <v>54</v>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="30.75">
-      <c r="B26" s="10" t="s">
-        <v>56</v>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="11"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="10" t="s">
-        <v>57</v>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="11" t="s">
-        <v>58</v>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="11" t="s">
-        <v>59</v>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="30.75">
-      <c r="B32" s="10" t="s">
-        <v>61</v>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" ht="30" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="11"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="10" t="s">
-        <v>62</v>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="11" t="s">
-        <v>63</v>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="11" t="s">
-        <v>64</v>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="30.75">
-      <c r="B38" s="10" t="s">
-        <v>66</v>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" ht="30" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="11"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="10" t="s">
-        <v>67</v>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="11" t="s">
-        <v>68</v>
+      <c r="B41" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>